--- a/xlsx/联邦通信委员会_intext.xlsx
+++ b/xlsx/联邦通信委员会_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>联邦通信委员会</t>
   </si>
@@ -29,13 +29,13 @@
     <t>FCC (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_联邦通信委员会</t>
+    <t>政策_政策_美国_联邦通信委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -59,27 +59,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E7%BE%8E%E5%9C%8B%E9%9B%BB%E4%BF%A1%E6%B3%95</t>
   </si>
   <si>
-    <t>1996年美國電信法</t>
+    <t>1996年美国电信法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
   </si>
   <si>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>電子媒體</t>
+    <t>电子媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%BA%BF%E7%94%B5%E8%A7%86</t>
@@ -167,13 +164,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>無線電視</t>
+    <t>无线电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8F%B0%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>電台廣播</t>
+    <t>电台广播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%98%9F%E7%94%B5%E8%A7%86</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9A%E4%BD%99%E6%97%A0%E7%BA%BF%E7%94%B5</t>
   </si>
   <si>
-    <t>业余无线电</t>
+    <t>业馀无线电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9C%82%E7%AA%9D%E7%BD%91%E7%BB%9C</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%96%87%C2%B7%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>凱文·馬丁</t>
+    <t>凯文·马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%86%E5%95%A6A%E6%A2%A6</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%96%B9%E5%90%91%E6%80%A7%E4%BF%A1%E6%A8%99</t>
   </si>
   <si>
-    <t>無方向性信標</t>
+    <t>无方向性信标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9C%E8%B7%9D%E7%A6%BB%E6%97%A0%E7%BA%BF%E7%94%B5%E5%AF%BC%E8%88%AA%E7%B3%BB%E7%BB%9F</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -287,13 +284,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -937,7 +934,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -963,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -992,10 +989,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -1021,10 +1018,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>13</v>
@@ -1050,10 +1047,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -1079,10 +1076,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1108,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1137,10 +1134,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1166,10 +1163,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1195,10 +1192,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1224,10 +1221,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1253,10 +1250,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1282,10 +1279,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1311,10 +1308,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1340,10 +1337,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1369,10 +1366,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1398,10 +1395,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1427,10 +1424,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1456,10 +1453,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1485,10 +1482,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1514,10 +1511,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1543,10 +1540,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1572,10 +1569,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1601,10 +1598,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1630,10 +1627,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1659,10 +1656,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1688,10 +1685,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1717,10 +1714,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1746,10 +1743,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1775,10 +1772,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -1804,10 +1801,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -1833,10 +1830,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1862,10 +1859,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1891,10 +1888,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1920,10 +1917,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1949,10 +1946,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1978,10 +1975,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2007,10 +2004,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2036,10 +2033,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
